--- a/testdata/FCfiles/stg/QuickQuote/QuickQuoteTestData.xlsx
+++ b/testdata/FCfiles/stg/QuickQuote/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="1042">
   <si>
     <t>shipmentType</t>
   </si>
@@ -3012,6 +3012,147 @@
   </si>
   <si>
     <t>FCUPSG1506756</t>
+  </si>
+  <si>
+    <t>58542808</t>
+  </si>
+  <si>
+    <t>01-22-2022</t>
+  </si>
+  <si>
+    <t>$1,118.17</t>
+  </si>
+  <si>
+    <t>FCT934435320542265344</t>
+  </si>
+  <si>
+    <t>FCABF1011812</t>
+  </si>
+  <si>
+    <t>58542811</t>
+  </si>
+  <si>
+    <t>58542812</t>
+  </si>
+  <si>
+    <t>FCT934439602674991104</t>
+  </si>
+  <si>
+    <t>CEV1072284</t>
+  </si>
+  <si>
+    <t>58542815</t>
+  </si>
+  <si>
+    <t>FCT934442072855805952</t>
+  </si>
+  <si>
+    <t>CEV1072285</t>
+  </si>
+  <si>
+    <t>58542818</t>
+  </si>
+  <si>
+    <t>FCT934444613115052032</t>
+  </si>
+  <si>
+    <t>CEV1072286</t>
+  </si>
+  <si>
+    <t>58542821</t>
+  </si>
+  <si>
+    <t>FCT934447691037933568</t>
+  </si>
+  <si>
+    <t>CEV1072287</t>
+  </si>
+  <si>
+    <t>58542824</t>
+  </si>
+  <si>
+    <t>FCT934451168392773632</t>
+  </si>
+  <si>
+    <t>CEV1072288</t>
+  </si>
+  <si>
+    <t>58542826</t>
+  </si>
+  <si>
+    <t>58542827</t>
+  </si>
+  <si>
+    <t>FCT934454611358515200</t>
+  </si>
+  <si>
+    <t>CEV1072290</t>
+  </si>
+  <si>
+    <t>58542830</t>
+  </si>
+  <si>
+    <t>$62.56</t>
+  </si>
+  <si>
+    <t>1Z44R7R60390439500</t>
+  </si>
+  <si>
+    <t>FCUPSG1506803</t>
+  </si>
+  <si>
+    <t>58542833</t>
+  </si>
+  <si>
+    <t>$80.55</t>
+  </si>
+  <si>
+    <t>1Z44R7R60396170137</t>
+  </si>
+  <si>
+    <t>FCUPSG1506804</t>
+  </si>
+  <si>
+    <t>58542835</t>
+  </si>
+  <si>
+    <t>58542836</t>
+  </si>
+  <si>
+    <t>$151.85</t>
+  </si>
+  <si>
+    <t>1Z44R7R60391084712</t>
+  </si>
+  <si>
+    <t>FCUPSG1506806</t>
+  </si>
+  <si>
+    <t>58542839</t>
+  </si>
+  <si>
+    <t>$41.50</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW96156351</t>
+  </si>
+  <si>
+    <t>FCUPSG1506807</t>
+  </si>
+  <si>
+    <t>58542842</t>
+  </si>
+  <si>
+    <t>$51.34</t>
+  </si>
+  <si>
+    <t>1Z44R7R6YW99467760</t>
+  </si>
+  <si>
+    <t>FCUPSG1506808</t>
+  </si>
+  <si>
+    <t>58542844</t>
   </si>
 </sst>
 </file>
@@ -3047,7 +3188,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2400">
+  <fills count="2528">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15044,8 +15185,648 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2396">
+  <borders count="2524">
     <border>
       <left/>
       <right/>
@@ -23987,6 +24768,454 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -23995,7 +25224,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1249">
+  <cellXfs count="1313">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -25244,7 +26473,71 @@
     <xf applyBorder="true" applyFill="true" borderId="2389" fillId="2393" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="2391" fillId="2395" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="2393" fillId="2397" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2399" borderId="2395" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="2395" fillId="2399" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2397" fillId="2401" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2399" fillId="2403" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2401" fillId="2405" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2403" fillId="2407" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2405" fillId="2409" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2407" fillId="2411" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2409" fillId="2413" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2411" fillId="2415" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2413" fillId="2417" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2415" fillId="2419" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2417" fillId="2421" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2419" fillId="2423" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2421" fillId="2425" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2423" fillId="2427" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2425" fillId="2429" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2427" fillId="2431" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2429" fillId="2433" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2431" fillId="2435" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2433" fillId="2437" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2435" fillId="2439" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2437" fillId="2441" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2439" fillId="2443" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2441" fillId="2445" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2443" fillId="2447" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2445" fillId="2449" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2447" fillId="2451" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2449" fillId="2453" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2451" fillId="2455" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2453" fillId="2457" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2455" fillId="2459" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2457" fillId="2461" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2459" fillId="2463" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2461" fillId="2465" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2463" fillId="2467" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2465" fillId="2469" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2467" fillId="2471" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2469" fillId="2473" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2471" fillId="2475" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2473" fillId="2477" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2475" fillId="2479" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2477" fillId="2481" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2479" fillId="2483" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2481" fillId="2485" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2483" fillId="2487" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2485" fillId="2489" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2487" fillId="2491" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2489" fillId="2493" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2491" fillId="2495" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2493" fillId="2497" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2495" fillId="2499" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2497" fillId="2501" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2499" fillId="2503" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2501" fillId="2505" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2503" fillId="2507" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2505" fillId="2509" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2507" fillId="2511" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2509" fillId="2513" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2511" fillId="2515" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2513" fillId="2517" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2515" fillId="2519" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2517" fillId="2521" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2519" fillId="2523" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2521" fillId="2525" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2527" borderId="2523" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -25892,8 +27185,8 @@
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="1190" t="s">
-        <v>947</v>
+      <c r="B2" s="1250" t="s">
+        <v>996</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -25944,20 +27237,20 @@
       <c r="U2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="1189" t="s">
-        <v>950</v>
-      </c>
-      <c r="W2" s="1123" t="s">
-        <v>902</v>
-      </c>
-      <c r="X2" s="1191" t="s">
-        <v>948</v>
-      </c>
-      <c r="Y2" s="1192" t="s">
-        <v>951</v>
-      </c>
-      <c r="Z2" s="1193" t="s">
-        <v>951</v>
+      <c r="V2" s="1249" t="s">
+        <v>995</v>
+      </c>
+      <c r="W2" s="1254" t="s">
+        <v>1000</v>
+      </c>
+      <c r="X2" s="1251" t="s">
+        <v>997</v>
+      </c>
+      <c r="Y2" s="1252" t="s">
+        <v>998</v>
+      </c>
+      <c r="Z2" s="1253" t="s">
+        <v>999</v>
       </c>
       <c r="AA2" s="15" t="s">
         <v>145</v>
@@ -25980,8 +27273,8 @@
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="1195" t="s">
-        <v>947</v>
+      <c r="B3" s="1256" t="s">
+        <v>996</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
@@ -26034,20 +27327,20 @@
       <c r="U3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="1194" t="s">
-        <v>952</v>
+      <c r="V3" s="1255" t="s">
+        <v>1001</v>
       </c>
       <c r="W3" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="X3" s="1196" t="s">
+      <c r="X3" s="1257" t="s">
         <v>953</v>
       </c>
-      <c r="Y3" s="1197" t="s">
-        <v>954</v>
-      </c>
-      <c r="Z3" s="1198" t="s">
-        <v>955</v>
+      <c r="Y3" s="1258" t="s">
+        <v>1002</v>
+      </c>
+      <c r="Z3" s="1259" t="s">
+        <v>1003</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>95</v>
@@ -26076,8 +27369,8 @@
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="1200" t="s">
-        <v>947</v>
+      <c r="B4" s="1261" t="s">
+        <v>996</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -26128,20 +27421,20 @@
       <c r="U4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="1199" t="s">
-        <v>956</v>
+      <c r="V4" s="1260" t="s">
+        <v>1004</v>
       </c>
       <c r="W4" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="X4" s="1201" t="s">
+      <c r="X4" s="1262" t="s">
         <v>957</v>
       </c>
-      <c r="Y4" s="1202" t="s">
-        <v>958</v>
-      </c>
-      <c r="Z4" s="1203" t="s">
-        <v>959</v>
+      <c r="Y4" s="1263" t="s">
+        <v>1005</v>
+      </c>
+      <c r="Z4" s="1264" t="s">
+        <v>1006</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>95</v>
@@ -26168,8 +27461,8 @@
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="1205" t="s">
-        <v>947</v>
+      <c r="B5" s="1266" t="s">
+        <v>996</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -26220,20 +27513,20 @@
       <c r="U5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="1204" t="s">
-        <v>960</v>
+      <c r="V5" s="1265" t="s">
+        <v>1007</v>
       </c>
       <c r="W5" s="1139" t="s">
         <v>912</v>
       </c>
-      <c r="X5" s="1206" t="s">
+      <c r="X5" s="1267" t="s">
         <v>961</v>
       </c>
-      <c r="Y5" s="1207" t="s">
-        <v>962</v>
-      </c>
-      <c r="Z5" s="1208" t="s">
-        <v>963</v>
+      <c r="Y5" s="1268" t="s">
+        <v>1008</v>
+      </c>
+      <c r="Z5" s="1269" t="s">
+        <v>1009</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>95</v>
@@ -26264,8 +27557,8 @@
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="1210" t="s">
-        <v>947</v>
+      <c r="B6" s="1271" t="s">
+        <v>996</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -26316,20 +27609,20 @@
       <c r="U6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="1209" t="s">
-        <v>964</v>
+      <c r="V6" s="1270" t="s">
+        <v>1010</v>
       </c>
       <c r="W6" s="1145" t="s">
         <v>916</v>
       </c>
-      <c r="X6" s="1211" t="s">
+      <c r="X6" s="1272" t="s">
         <v>957</v>
       </c>
-      <c r="Y6" s="1212" t="s">
-        <v>965</v>
-      </c>
-      <c r="Z6" s="1213" t="s">
-        <v>966</v>
+      <c r="Y6" s="1273" t="s">
+        <v>1011</v>
+      </c>
+      <c r="Z6" s="1274" t="s">
+        <v>1012</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>95</v>
@@ -26356,8 +27649,8 @@
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="1215" t="s">
-        <v>947</v>
+      <c r="B7" s="1276" t="s">
+        <v>996</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
@@ -26406,20 +27699,20 @@
       <c r="U7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="1214" t="s">
-        <v>967</v>
-      </c>
-      <c r="W7" s="1151" t="s">
-        <v>920</v>
-      </c>
-      <c r="X7" s="1216" t="s">
+      <c r="V7" s="1275" t="s">
+        <v>1013</v>
+      </c>
+      <c r="W7" s="1280" t="s">
+        <v>1016</v>
+      </c>
+      <c r="X7" s="1277" t="s">
         <v>968</v>
       </c>
-      <c r="Y7" s="1217" t="s">
-        <v>969</v>
-      </c>
-      <c r="Z7" s="1218" t="s">
-        <v>970</v>
+      <c r="Y7" s="1278" t="s">
+        <v>1014</v>
+      </c>
+      <c r="Z7" s="1279" t="s">
+        <v>1015</v>
       </c>
       <c r="AA7" s="8" t="s">
         <v>95</v>
@@ -26442,8 +27735,8 @@
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="1220" t="s">
-        <v>947</v>
+      <c r="B8" s="1282" t="s">
+        <v>996</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -26494,20 +27787,20 @@
       <c r="U8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="1219" t="s">
-        <v>971</v>
+      <c r="V8" s="1281" t="s">
+        <v>1017</v>
       </c>
       <c r="W8" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="X8" s="1221" t="s">
+      <c r="X8" s="1283" t="s">
         <v>972</v>
       </c>
-      <c r="Y8" s="1222" t="s">
-        <v>973</v>
-      </c>
-      <c r="Z8" s="1223" t="s">
-        <v>974</v>
+      <c r="Y8" s="1284" t="s">
+        <v>1018</v>
+      </c>
+      <c r="Z8" s="1285" t="s">
+        <v>1019</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>95</v>
@@ -26534,8 +27827,8 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1225" t="s">
-        <v>947</v>
+      <c r="B9" s="1287" t="s">
+        <v>996</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -26586,20 +27879,20 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="1224" t="s">
-        <v>975</v>
+      <c r="V9" s="1286" t="s">
+        <v>1020</v>
       </c>
       <c r="W9" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="X9" s="1226" t="s">
-        <v>976</v>
-      </c>
-      <c r="Y9" s="1227" t="s">
-        <v>977</v>
-      </c>
-      <c r="Z9" s="1228" t="s">
-        <v>978</v>
+      <c r="X9" s="1288" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Y9" s="1289" t="s">
+        <v>1022</v>
+      </c>
+      <c r="Z9" s="1290" t="s">
+        <v>1023</v>
       </c>
       <c r="AA9" s="14" t="s">
         <v>144</v>
@@ -26620,8 +27913,8 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1240" t="s">
-        <v>947</v>
+      <c r="B10" s="1292" t="s">
+        <v>996</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -26670,20 +27963,20 @@
       <c r="U10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="1239" t="s">
-        <v>987</v>
-      </c>
-      <c r="W10" s="1167" t="s">
-        <v>932</v>
-      </c>
-      <c r="X10" s="1241" t="s">
-        <v>988</v>
-      </c>
-      <c r="Y10" s="1242" t="s">
-        <v>989</v>
-      </c>
-      <c r="Z10" s="1243" t="s">
-        <v>990</v>
+      <c r="V10" s="1291" t="s">
+        <v>1024</v>
+      </c>
+      <c r="W10" s="1296" t="s">
+        <v>1028</v>
+      </c>
+      <c r="X10" s="1293" t="s">
+        <v>1025</v>
+      </c>
+      <c r="Y10" s="1294" t="s">
+        <v>1026</v>
+      </c>
+      <c r="Z10" s="1295" t="s">
+        <v>1027</v>
       </c>
       <c r="AA10" s="14" t="s">
         <v>144</v>
@@ -26702,8 +27995,8 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1230" t="s">
-        <v>947</v>
+      <c r="B11" s="1298" t="s">
+        <v>996</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -26754,20 +28047,20 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="1229" t="s">
-        <v>979</v>
+      <c r="V11" s="1297" t="s">
+        <v>1029</v>
       </c>
       <c r="W11" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="X11" s="1231" t="s">
-        <v>980</v>
-      </c>
-      <c r="Y11" s="1232" t="s">
-        <v>981</v>
-      </c>
-      <c r="Z11" s="1233" t="s">
-        <v>982</v>
+      <c r="X11" s="1299" t="s">
+        <v>1030</v>
+      </c>
+      <c r="Y11" s="1300" t="s">
+        <v>1031</v>
+      </c>
+      <c r="Z11" s="1301" t="s">
+        <v>1032</v>
       </c>
       <c r="AA11" s="14" t="s">
         <v>144</v>
@@ -26788,8 +28081,8 @@
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1235" t="s">
-        <v>947</v>
+      <c r="B12" s="1303" t="s">
+        <v>996</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -26840,20 +28133,20 @@
       <c r="U12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="1234" t="s">
-        <v>983</v>
+      <c r="V12" s="1302" t="s">
+        <v>1033</v>
       </c>
       <c r="W12" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="X12" s="1236" t="s">
-        <v>984</v>
-      </c>
-      <c r="Y12" s="1237" t="s">
-        <v>985</v>
-      </c>
-      <c r="Z12" s="1238" t="s">
-        <v>986</v>
+      <c r="X12" s="1304" t="s">
+        <v>1034</v>
+      </c>
+      <c r="Y12" s="1305" t="s">
+        <v>1035</v>
+      </c>
+      <c r="Z12" s="1306" t="s">
+        <v>1036</v>
       </c>
       <c r="AA12" s="14" t="s">
         <v>108</v>
@@ -26874,8 +28167,8 @@
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="1245" t="s">
-        <v>947</v>
+      <c r="B13" s="1308" t="s">
+        <v>996</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -26924,20 +28217,20 @@
       <c r="U13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="1244" t="s">
-        <v>991</v>
-      </c>
-      <c r="W13" s="1183" t="s">
-        <v>945</v>
-      </c>
-      <c r="X13" s="1246" t="s">
-        <v>992</v>
-      </c>
-      <c r="Y13" s="1247" t="s">
-        <v>993</v>
-      </c>
-      <c r="Z13" s="1248" t="s">
-        <v>994</v>
+      <c r="V13" s="1307" t="s">
+        <v>1037</v>
+      </c>
+      <c r="W13" s="1312" t="s">
+        <v>1041</v>
+      </c>
+      <c r="X13" s="1309" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Y13" s="1310" t="s">
+        <v>1039</v>
+      </c>
+      <c r="Z13" s="1311" t="s">
+        <v>1040</v>
       </c>
       <c r="AA13" s="14" t="s">
         <v>108</v>

--- a/testdata/FCfiles/stg/QuickQuote/QuickQuoteTestData.xlsx
+++ b/testdata/FCfiles/stg/QuickQuote/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="1087">
   <si>
     <t>shipmentType</t>
   </si>
@@ -3153,6 +3153,141 @@
   </si>
   <si>
     <t>58542844</t>
+  </si>
+  <si>
+    <t>58542889</t>
+  </si>
+  <si>
+    <t>01-24-2022</t>
+  </si>
+  <si>
+    <t>$438.78</t>
+  </si>
+  <si>
+    <t>FCT935084250691010560</t>
+  </si>
+  <si>
+    <t>FCBTXA1000045</t>
+  </si>
+  <si>
+    <t>58542891</t>
+  </si>
+  <si>
+    <t>58542892</t>
+  </si>
+  <si>
+    <t>$920.18</t>
+  </si>
+  <si>
+    <t>FCT935087078616596480</t>
+  </si>
+  <si>
+    <t>CEV1072291</t>
+  </si>
+  <si>
+    <t>58542894</t>
+  </si>
+  <si>
+    <t>$1,058.70</t>
+  </si>
+  <si>
+    <t>FCT935089144613306368</t>
+  </si>
+  <si>
+    <t>CEV1072292</t>
+  </si>
+  <si>
+    <t>58542896</t>
+  </si>
+  <si>
+    <t>$2,629.96</t>
+  </si>
+  <si>
+    <t>FCT935091307511021568</t>
+  </si>
+  <si>
+    <t>CEV1072293</t>
+  </si>
+  <si>
+    <t>58542898</t>
+  </si>
+  <si>
+    <t>FCT935094085021073408</t>
+  </si>
+  <si>
+    <t>CEV1072294</t>
+  </si>
+  <si>
+    <t>58542901</t>
+  </si>
+  <si>
+    <t>FCT935097144338022400</t>
+  </si>
+  <si>
+    <t>CEV1072295</t>
+  </si>
+  <si>
+    <t>58542903</t>
+  </si>
+  <si>
+    <t>$577.49</t>
+  </si>
+  <si>
+    <t>FCT935099003689762816</t>
+  </si>
+  <si>
+    <t>CEV1072296</t>
+  </si>
+  <si>
+    <t>58542906</t>
+  </si>
+  <si>
+    <t>$60.35</t>
+  </si>
+  <si>
+    <t>FCUPSG1506813</t>
+  </si>
+  <si>
+    <t>58542909</t>
+  </si>
+  <si>
+    <t>$81.95</t>
+  </si>
+  <si>
+    <t>FCUPSG1506814</t>
+  </si>
+  <si>
+    <t>58542911</t>
+  </si>
+  <si>
+    <t>58542912</t>
+  </si>
+  <si>
+    <t>$149.64</t>
+  </si>
+  <si>
+    <t>FCUPSG1506816</t>
+  </si>
+  <si>
+    <t>58542915</t>
+  </si>
+  <si>
+    <t>$39.29</t>
+  </si>
+  <si>
+    <t>FCUPSG1506817</t>
+  </si>
+  <si>
+    <t>58542918</t>
+  </si>
+  <si>
+    <t>$46.94</t>
+  </si>
+  <si>
+    <t>FCUPSG1506818</t>
+  </si>
+  <si>
+    <t>58542920</t>
   </si>
 </sst>
 </file>
@@ -3188,7 +3323,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2528">
+  <fills count="2654">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15825,8 +15960,638 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2524">
+  <borders count="2650">
     <border>
       <left/>
       <right/>
@@ -25216,6 +25981,447 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -25224,7 +26430,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1313">
+  <cellXfs count="1376">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -26537,7 +27743,70 @@
     <xf applyBorder="true" applyFill="true" borderId="2517" fillId="2521" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="2519" fillId="2523" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="2521" fillId="2525" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2527" borderId="2523" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="2523" fillId="2527" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2525" fillId="2529" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2527" fillId="2531" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2529" fillId="2533" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2531" fillId="2535" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2533" fillId="2537" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2535" fillId="2539" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2537" fillId="2541" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2539" fillId="2543" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2541" fillId="2545" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2543" fillId="2547" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2545" fillId="2549" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2547" fillId="2551" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2549" fillId="2553" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2551" fillId="2555" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2553" fillId="2557" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2555" fillId="2559" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2557" fillId="2561" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2559" fillId="2563" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2561" fillId="2565" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2563" fillId="2567" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2565" fillId="2569" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2567" fillId="2571" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2569" fillId="2573" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2571" fillId="2575" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2573" fillId="2577" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2575" fillId="2579" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2577" fillId="2581" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2579" fillId="2583" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2581" fillId="2585" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2583" fillId="2587" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2585" fillId="2589" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2587" fillId="2591" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2589" fillId="2593" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2591" fillId="2595" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2593" fillId="2597" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2595" fillId="2599" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2597" fillId="2601" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2599" fillId="2603" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2601" fillId="2605" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2603" fillId="2607" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2605" fillId="2609" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2607" fillId="2611" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2609" fillId="2613" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2611" fillId="2615" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2613" fillId="2617" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2615" fillId="2619" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2617" fillId="2621" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2619" fillId="2623" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2621" fillId="2625" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2623" fillId="2627" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2625" fillId="2629" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2627" fillId="2631" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2629" fillId="2633" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2631" fillId="2635" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2633" fillId="2637" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2635" fillId="2639" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2637" fillId="2641" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2639" fillId="2643" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2641" fillId="2645" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2643" fillId="2647" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2645" fillId="2649" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="2647" fillId="2651" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2653" borderId="2649" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -27185,8 +28454,8 @@
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="1250" t="s">
-        <v>996</v>
+      <c r="B2" s="1314" t="s">
+        <v>1043</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -27237,20 +28506,20 @@
       <c r="U2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="1249" t="s">
-        <v>995</v>
-      </c>
-      <c r="W2" s="1254" t="s">
-        <v>1000</v>
-      </c>
-      <c r="X2" s="1251" t="s">
-        <v>997</v>
-      </c>
-      <c r="Y2" s="1252" t="s">
-        <v>998</v>
-      </c>
-      <c r="Z2" s="1253" t="s">
-        <v>999</v>
+      <c r="V2" s="1313" t="s">
+        <v>1042</v>
+      </c>
+      <c r="W2" s="1318" t="s">
+        <v>1047</v>
+      </c>
+      <c r="X2" s="1315" t="s">
+        <v>1044</v>
+      </c>
+      <c r="Y2" s="1316" t="s">
+        <v>1045</v>
+      </c>
+      <c r="Z2" s="1317" t="s">
+        <v>1046</v>
       </c>
       <c r="AA2" s="15" t="s">
         <v>145</v>
@@ -27273,8 +28542,8 @@
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="1256" t="s">
-        <v>996</v>
+      <c r="B3" s="1320" t="s">
+        <v>1043</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
@@ -27327,20 +28596,20 @@
       <c r="U3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="1255" t="s">
-        <v>1001</v>
+      <c r="V3" s="1319" t="s">
+        <v>1048</v>
       </c>
       <c r="W3" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="X3" s="1257" t="s">
-        <v>953</v>
-      </c>
-      <c r="Y3" s="1258" t="s">
-        <v>1002</v>
-      </c>
-      <c r="Z3" s="1259" t="s">
-        <v>1003</v>
+      <c r="X3" s="1321" t="s">
+        <v>1049</v>
+      </c>
+      <c r="Y3" s="1322" t="s">
+        <v>1050</v>
+      </c>
+      <c r="Z3" s="1323" t="s">
+        <v>1051</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>95</v>
@@ -27369,8 +28638,8 @@
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="1261" t="s">
-        <v>996</v>
+      <c r="B4" s="1325" t="s">
+        <v>1043</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -27421,20 +28690,20 @@
       <c r="U4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="1260" t="s">
-        <v>1004</v>
+      <c r="V4" s="1324" t="s">
+        <v>1052</v>
       </c>
       <c r="W4" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="X4" s="1262" t="s">
-        <v>957</v>
-      </c>
-      <c r="Y4" s="1263" t="s">
-        <v>1005</v>
-      </c>
-      <c r="Z4" s="1264" t="s">
-        <v>1006</v>
+      <c r="X4" s="1326" t="s">
+        <v>1053</v>
+      </c>
+      <c r="Y4" s="1327" t="s">
+        <v>1054</v>
+      </c>
+      <c r="Z4" s="1328" t="s">
+        <v>1055</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>95</v>
@@ -27461,8 +28730,8 @@
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="1266" t="s">
-        <v>996</v>
+      <c r="B5" s="1330" t="s">
+        <v>1043</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -27513,20 +28782,20 @@
       <c r="U5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="1265" t="s">
-        <v>1007</v>
+      <c r="V5" s="1329" t="s">
+        <v>1056</v>
       </c>
       <c r="W5" s="1139" t="s">
         <v>912</v>
       </c>
-      <c r="X5" s="1267" t="s">
-        <v>961</v>
-      </c>
-      <c r="Y5" s="1268" t="s">
-        <v>1008</v>
-      </c>
-      <c r="Z5" s="1269" t="s">
-        <v>1009</v>
+      <c r="X5" s="1331" t="s">
+        <v>1057</v>
+      </c>
+      <c r="Y5" s="1332" t="s">
+        <v>1058</v>
+      </c>
+      <c r="Z5" s="1333" t="s">
+        <v>1059</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>95</v>
@@ -27557,8 +28826,8 @@
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="1271" t="s">
-        <v>996</v>
+      <c r="B6" s="1335" t="s">
+        <v>1043</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -27609,20 +28878,20 @@
       <c r="U6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="1270" t="s">
-        <v>1010</v>
+      <c r="V6" s="1334" t="s">
+        <v>1060</v>
       </c>
       <c r="W6" s="1145" t="s">
         <v>916</v>
       </c>
-      <c r="X6" s="1272" t="s">
-        <v>957</v>
-      </c>
-      <c r="Y6" s="1273" t="s">
-        <v>1011</v>
-      </c>
-      <c r="Z6" s="1274" t="s">
-        <v>1012</v>
+      <c r="X6" s="1336" t="s">
+        <v>1053</v>
+      </c>
+      <c r="Y6" s="1337" t="s">
+        <v>1061</v>
+      </c>
+      <c r="Z6" s="1338" t="s">
+        <v>1062</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>95</v>
@@ -27649,8 +28918,8 @@
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="1276" t="s">
-        <v>996</v>
+      <c r="B7" s="1340" t="s">
+        <v>1043</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
@@ -27699,20 +28968,20 @@
       <c r="U7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="1275" t="s">
-        <v>1013</v>
+      <c r="V7" s="1339" t="s">
+        <v>1063</v>
       </c>
       <c r="W7" s="1280" t="s">
         <v>1016</v>
       </c>
-      <c r="X7" s="1277" t="s">
-        <v>968</v>
-      </c>
-      <c r="Y7" s="1278" t="s">
-        <v>1014</v>
-      </c>
-      <c r="Z7" s="1279" t="s">
-        <v>1015</v>
+      <c r="X7" s="1341" t="s">
+        <v>1053</v>
+      </c>
+      <c r="Y7" s="1342" t="s">
+        <v>1064</v>
+      </c>
+      <c r="Z7" s="1343" t="s">
+        <v>1065</v>
       </c>
       <c r="AA7" s="8" t="s">
         <v>95</v>
@@ -27735,8 +29004,8 @@
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="1282" t="s">
-        <v>996</v>
+      <c r="B8" s="1345" t="s">
+        <v>1043</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -27787,20 +29056,20 @@
       <c r="U8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="1281" t="s">
-        <v>1017</v>
+      <c r="V8" s="1344" t="s">
+        <v>1066</v>
       </c>
       <c r="W8" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="X8" s="1283" t="s">
-        <v>972</v>
-      </c>
-      <c r="Y8" s="1284" t="s">
-        <v>1018</v>
-      </c>
-      <c r="Z8" s="1285" t="s">
-        <v>1019</v>
+      <c r="X8" s="1346" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Y8" s="1347" t="s">
+        <v>1068</v>
+      </c>
+      <c r="Z8" s="1348" t="s">
+        <v>1069</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>95</v>
@@ -27827,8 +29096,8 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1287" t="s">
-        <v>996</v>
+      <c r="B9" s="1350" t="s">
+        <v>1043</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -27879,20 +29148,20 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="1286" t="s">
-        <v>1020</v>
+      <c r="V9" s="1349" t="s">
+        <v>1070</v>
       </c>
       <c r="W9" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="X9" s="1288" t="s">
-        <v>1021</v>
-      </c>
-      <c r="Y9" s="1289" t="s">
-        <v>1022</v>
-      </c>
-      <c r="Z9" s="1290" t="s">
-        <v>1023</v>
+      <c r="X9" s="1351" t="s">
+        <v>1071</v>
+      </c>
+      <c r="Y9" s="1352" t="s">
+        <v>1072</v>
+      </c>
+      <c r="Z9" s="1353" t="s">
+        <v>1072</v>
       </c>
       <c r="AA9" s="14" t="s">
         <v>144</v>
@@ -27913,8 +29182,8 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1292" t="s">
-        <v>996</v>
+      <c r="B10" s="1355" t="s">
+        <v>1043</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -27963,20 +29232,20 @@
       <c r="U10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="1291" t="s">
-        <v>1024</v>
-      </c>
-      <c r="W10" s="1296" t="s">
-        <v>1028</v>
-      </c>
-      <c r="X10" s="1293" t="s">
-        <v>1025</v>
-      </c>
-      <c r="Y10" s="1294" t="s">
-        <v>1026</v>
-      </c>
-      <c r="Z10" s="1295" t="s">
-        <v>1027</v>
+      <c r="V10" s="1354" t="s">
+        <v>1073</v>
+      </c>
+      <c r="W10" s="1359" t="s">
+        <v>1076</v>
+      </c>
+      <c r="X10" s="1356" t="s">
+        <v>1074</v>
+      </c>
+      <c r="Y10" s="1357" t="s">
+        <v>1075</v>
+      </c>
+      <c r="Z10" s="1358" t="s">
+        <v>1075</v>
       </c>
       <c r="AA10" s="14" t="s">
         <v>144</v>
@@ -27995,8 +29264,8 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1298" t="s">
-        <v>996</v>
+      <c r="B11" s="1361" t="s">
+        <v>1043</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -28047,20 +29316,20 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="1297" t="s">
-        <v>1029</v>
+      <c r="V11" s="1360" t="s">
+        <v>1077</v>
       </c>
       <c r="W11" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="X11" s="1299" t="s">
-        <v>1030</v>
-      </c>
-      <c r="Y11" s="1300" t="s">
-        <v>1031</v>
-      </c>
-      <c r="Z11" s="1301" t="s">
-        <v>1032</v>
+      <c r="X11" s="1362" t="s">
+        <v>1078</v>
+      </c>
+      <c r="Y11" s="1363" t="s">
+        <v>1079</v>
+      </c>
+      <c r="Z11" s="1364" t="s">
+        <v>1079</v>
       </c>
       <c r="AA11" s="14" t="s">
         <v>144</v>
@@ -28081,8 +29350,8 @@
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1303" t="s">
-        <v>996</v>
+      <c r="B12" s="1366" t="s">
+        <v>1043</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -28133,20 +29402,20 @@
       <c r="U12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="1302" t="s">
-        <v>1033</v>
+      <c r="V12" s="1365" t="s">
+        <v>1080</v>
       </c>
       <c r="W12" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="X12" s="1304" t="s">
-        <v>1034</v>
-      </c>
-      <c r="Y12" s="1305" t="s">
-        <v>1035</v>
-      </c>
-      <c r="Z12" s="1306" t="s">
-        <v>1036</v>
+      <c r="X12" s="1367" t="s">
+        <v>1081</v>
+      </c>
+      <c r="Y12" s="1368" t="s">
+        <v>1082</v>
+      </c>
+      <c r="Z12" s="1369" t="s">
+        <v>1082</v>
       </c>
       <c r="AA12" s="14" t="s">
         <v>108</v>
@@ -28167,8 +29436,8 @@
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="1308" t="s">
-        <v>996</v>
+      <c r="B13" s="1371" t="s">
+        <v>1043</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -28217,20 +29486,20 @@
       <c r="U13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="1307" t="s">
-        <v>1037</v>
-      </c>
-      <c r="W13" s="1312" t="s">
-        <v>1041</v>
-      </c>
-      <c r="X13" s="1309" t="s">
-        <v>1038</v>
-      </c>
-      <c r="Y13" s="1310" t="s">
-        <v>1039</v>
-      </c>
-      <c r="Z13" s="1311" t="s">
-        <v>1040</v>
+      <c r="V13" s="1370" t="s">
+        <v>1083</v>
+      </c>
+      <c r="W13" s="1375" t="s">
+        <v>1086</v>
+      </c>
+      <c r="X13" s="1372" t="s">
+        <v>1084</v>
+      </c>
+      <c r="Y13" s="1373" t="s">
+        <v>1085</v>
+      </c>
+      <c r="Z13" s="1374" t="s">
+        <v>1085</v>
       </c>
       <c r="AA13" s="14" t="s">
         <v>108</v>

--- a/testdata/FCfiles/stg/QuickQuote/QuickQuoteTestData.xlsx
+++ b/testdata/FCfiles/stg/QuickQuote/QuickQuoteTestData.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qualitesoft\testdata\FCfiles\stg\QuickQuote\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848EC388-504B-408D-9805-7EFF36FB86D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="2" tabRatio="589" windowHeight="11160" windowWidth="20730" xWindow="-120" yWindow="-120"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="589" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CreateAccount" r:id="rId1" sheetId="7"/>
-    <sheet name="ShipmentInformation" r:id="rId2" sheetId="6"/>
-    <sheet name="Input" r:id="rId3" sheetId="1"/>
+    <sheet name="CreateAccount" sheetId="7" r:id="rId1"/>
+    <sheet name="ShipmentInformation" sheetId="6" r:id="rId2"/>
+    <sheet name="Input" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="201">
   <si>
     <t>shipmentType</t>
   </si>
@@ -458,9 +464,6 @@
     <t>Ups</t>
   </si>
   <si>
-    <t>BTX Global Logistics</t>
-  </si>
-  <si>
     <t>51499551</t>
   </si>
   <si>
@@ -494,51 +497,6 @@
     <t>51527617</t>
   </si>
   <si>
-    <t>58542826</t>
-  </si>
-  <si>
-    <t>01-24-2022</t>
-  </si>
-  <si>
-    <t>$438.78</t>
-  </si>
-  <si>
-    <t>58542891</t>
-  </si>
-  <si>
-    <t>$920.18</t>
-  </si>
-  <si>
-    <t>$1,058.70</t>
-  </si>
-  <si>
-    <t>$2,629.96</t>
-  </si>
-  <si>
-    <t>$577.49</t>
-  </si>
-  <si>
-    <t>$60.35</t>
-  </si>
-  <si>
-    <t>$81.95</t>
-  </si>
-  <si>
-    <t>58542911</t>
-  </si>
-  <si>
-    <t>$149.64</t>
-  </si>
-  <si>
-    <t>$39.29</t>
-  </si>
-  <si>
-    <t>$46.94</t>
-  </si>
-  <si>
-    <t>58542920</t>
-  </si>
-  <si>
     <t>02-10-2022</t>
   </si>
   <si>
@@ -557,187 +515,7 @@
     <t>FC Test Carrier</t>
   </si>
   <si>
-    <t>58542457</t>
-  </si>
-  <si>
-    <t>58572417</t>
-  </si>
-  <si>
-    <t>58573000</t>
-  </si>
-  <si>
-    <t>58572990</t>
-  </si>
-  <si>
-    <t>FCBTXA1000039</t>
-  </si>
-  <si>
-    <t>FCUPSG1506974</t>
-  </si>
-  <si>
-    <t>FCTEST1004317</t>
-  </si>
-  <si>
-    <t>FCTEST1004316</t>
-  </si>
-  <si>
-    <t>1Z44R7R60397765752</t>
-  </si>
-  <si>
-    <t>1Z44R7R60398305167</t>
-  </si>
-  <si>
-    <t>FCT945582051824762880</t>
-  </si>
-  <si>
-    <t>FCT945573279630884864</t>
-  </si>
-  <si>
-    <t>58575659</t>
-  </si>
-  <si>
-    <t>03-06-2022</t>
-  </si>
-  <si>
-    <t>FCT949934713529696256</t>
-  </si>
-  <si>
-    <t>FCBTXA1000105</t>
-  </si>
-  <si>
-    <t>58575661</t>
-  </si>
-  <si>
-    <t>58575662</t>
-  </si>
-  <si>
-    <t>$1,865.55</t>
-  </si>
-  <si>
-    <t>FCT949937358713651200</t>
-  </si>
-  <si>
-    <t>FCABF1011846</t>
-  </si>
-  <si>
-    <t>58575665</t>
-  </si>
-  <si>
-    <t>$2,264.19</t>
-  </si>
-  <si>
-    <t>FCT949939795642023936</t>
-  </si>
-  <si>
-    <t>FCABF1011847</t>
-  </si>
-  <si>
-    <t>58575668</t>
-  </si>
-  <si>
-    <t>$5,317.95</t>
-  </si>
-  <si>
-    <t>FCT949942228988461056</t>
-  </si>
-  <si>
-    <t>FCABF1011848</t>
-  </si>
-  <si>
-    <t>58575670</t>
-  </si>
-  <si>
-    <t>FCT949944827938603008</t>
-  </si>
-  <si>
-    <t>FCABF1011849</t>
-  </si>
-  <si>
-    <t>58575673</t>
-  </si>
-  <si>
-    <t>FCT949947890946539520</t>
-  </si>
-  <si>
-    <t>FCABF1011850</t>
-  </si>
-  <si>
-    <t>58575675</t>
-  </si>
-  <si>
-    <t>$1,065.78</t>
-  </si>
-  <si>
-    <t>FCT949949937360044032</t>
-  </si>
-  <si>
-    <t>FCABF1011851</t>
-  </si>
-  <si>
-    <t>58575678</t>
-  </si>
-  <si>
-    <t>$60.77</t>
-  </si>
-  <si>
-    <t>FCUPSG1507140</t>
-  </si>
-  <si>
-    <t>58575681</t>
-  </si>
-  <si>
-    <t>$82.45</t>
-  </si>
-  <si>
-    <t>FCUPSG1507141</t>
-  </si>
-  <si>
-    <t>58575683</t>
-  </si>
-  <si>
-    <t>58575684</t>
-  </si>
-  <si>
-    <t>$150.51</t>
-  </si>
-  <si>
-    <t>FCUPSG1507143</t>
-  </si>
-  <si>
-    <t>58575687</t>
-  </si>
-  <si>
-    <t>$39.53</t>
-  </si>
-  <si>
-    <t>FCUPSG1507144</t>
-  </si>
-  <si>
-    <t>58575690</t>
-  </si>
-  <si>
-    <t>$47.22</t>
-  </si>
-  <si>
-    <t>FCUPSG1507145</t>
-  </si>
-  <si>
-    <t>58575692</t>
-  </si>
-  <si>
-    <t>59067025</t>
-  </si>
-  <si>
-    <t>04-10-2022</t>
-  </si>
-  <si>
     <t>$481.38</t>
-  </si>
-  <si>
-    <t>FCT962757107147341824</t>
-  </si>
-  <si>
-    <t>FCBTXA1000158</t>
   </si>
   <si>
     <t>59068442</t>
@@ -857,9 +635,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -880,14 +657,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="42">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -959,143 +730,8 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="40">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1228,501 +864,111 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="186">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="3" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="4" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="5" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="6" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="7" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="8" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="9" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="10" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="11" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="12" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="13" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="14" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="15" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="16" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="17" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="18" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="19" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="20" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="21" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="22" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="23" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="24" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="25" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="26" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="27" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="28" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="29" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="30" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="31" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="32" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="33" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="34" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="35" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="36" fillId="40" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="37" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="39" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="true" applyBorder="true"/>
+  <cellXfs count="89">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1739,10 +985,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1906,21 +1152,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1937,7 +1183,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1989,23 +1235,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>117</v>
       </c>
@@ -2034,7 +1280,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -2042,10 +1288,10 @@
         <v>124</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
         <v>125</v>
@@ -2064,30 +1310,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="21.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -2147,7 +1393,7 @@
       </c>
       <c r="T1" s="3"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -2209,53 +1455,53 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="I2"/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AH14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="11.43359375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="31.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="18.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="9.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="20.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="21.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
-    <col min="12" max="13" customWidth="true" style="1" width="33.42578125" collapsed="true"/>
-    <col min="14" max="16" style="1" width="9.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="11.85546875" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="40.0" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="14.140625" collapsed="true"/>
-    <col min="20" max="21" style="1" width="9.140625" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="9.95703125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="13.07421875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="9.9453125" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="24.36328125" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="15.97265625" collapsed="true"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="12.5703125" collapsed="true"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="20.140625" collapsed="true"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="19.28515625" collapsed="true"/>
-    <col min="30" max="32" customWidth="true" style="1" width="19.28515625" collapsed="true"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="23.140625" collapsed="true"/>
-    <col min="34" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="18.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.5546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="33.44140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16" width="9.109375" style="1" collapsed="1"/>
+    <col min="17" max="17" width="11.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="40" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="14.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="21" width="9.109375" style="1" collapsed="1"/>
+    <col min="22" max="22" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="13.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="24.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="16" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="12.5546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="20.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="19.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="19.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="23.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="16384" width="9.109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2359,12 +1605,12 @@
         <v>128</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="2" spans="1:34">
+    <row r="2" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="123" t="s">
-        <v>240</v>
+      <c r="B2" s="26" t="s">
+        <v>164</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -2415,23 +1661,23 @@
       <c r="U2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="122" t="s">
-        <v>239</v>
-      </c>
-      <c r="W2" s="127" t="s">
-        <v>242</v>
-      </c>
-      <c r="X2" s="124" t="s">
-        <v>236</v>
-      </c>
-      <c r="Y2" s="125" t="s">
-        <v>241</v>
-      </c>
-      <c r="Z2" s="126" t="s">
-        <v>241</v>
-      </c>
-      <c r="AA2" s="15" t="s">
-        <v>145</v>
+      <c r="V2" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="W2" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="X2" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y2" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z2" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>95</v>
       </c>
       <c r="AB2" s="3" t="s">
         <v>30</v>
@@ -2447,12 +1693,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="129" t="s">
-        <v>240</v>
+      <c r="B3" s="32" t="s">
+        <v>164</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
@@ -2505,20 +1751,20 @@
       <c r="U3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="128" t="s">
-        <v>243</v>
-      </c>
-      <c r="W3" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="X3" s="130" t="s">
-        <v>244</v>
-      </c>
-      <c r="Y3" s="131" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z3" s="132" t="s">
-        <v>245</v>
+      <c r="V3" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="W3" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="X3" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y3" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z3" s="35" t="s">
+        <v>169</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>95</v>
@@ -2543,12 +1789,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="134" t="s">
-        <v>240</v>
+      <c r="B4" s="37" t="s">
+        <v>164</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -2599,20 +1845,20 @@
       <c r="U4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="133" t="s">
-        <v>246</v>
-      </c>
-      <c r="W4" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="X4" s="135" t="s">
-        <v>247</v>
-      </c>
-      <c r="Y4" s="136" t="s">
-        <v>248</v>
-      </c>
-      <c r="Z4" s="137" t="s">
-        <v>248</v>
+      <c r="V4" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="W4" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="X4" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y4" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z4" s="40" t="s">
+        <v>172</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>95</v>
@@ -2635,12 +1881,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="139" t="s">
-        <v>240</v>
+      <c r="B5" s="42" t="s">
+        <v>164</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -2691,20 +1937,20 @@
       <c r="U5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="138" t="s">
-        <v>249</v>
-      </c>
-      <c r="W5" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="X5" s="140" t="s">
-        <v>250</v>
-      </c>
-      <c r="Y5" s="141" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z5" s="142" t="s">
-        <v>251</v>
+      <c r="V5" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="W5" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="X5" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y5" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z5" s="45" t="s">
+        <v>175</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>95</v>
@@ -2731,12 +1977,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="144" t="s">
-        <v>240</v>
+      <c r="B6" s="47" t="s">
+        <v>164</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -2787,20 +2033,20 @@
       <c r="U6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="143" t="s">
-        <v>252</v>
-      </c>
-      <c r="W6" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="X6" s="145" t="s">
-        <v>247</v>
-      </c>
-      <c r="Y6" s="146" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z6" s="147" t="s">
-        <v>253</v>
+      <c r="V6" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="W6" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="X6" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y6" s="49" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z6" s="50" t="s">
+        <v>177</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>95</v>
@@ -2823,12 +2069,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="149" t="s">
-        <v>240</v>
+      <c r="B7" s="52" t="s">
+        <v>164</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
@@ -2877,20 +2123,20 @@
       <c r="U7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="148" t="s">
-        <v>254</v>
-      </c>
-      <c r="W7" s="153" t="s">
-        <v>256</v>
-      </c>
-      <c r="X7" s="150" t="s">
-        <v>247</v>
-      </c>
-      <c r="Y7" s="151" t="s">
-        <v>255</v>
-      </c>
-      <c r="Z7" s="152" t="s">
-        <v>255</v>
+      <c r="V7" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="W7" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="X7" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y7" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z7" s="55" t="s">
+        <v>179</v>
       </c>
       <c r="AA7" s="8" t="s">
         <v>95</v>
@@ -2909,12 +2155,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="155" t="s">
-        <v>240</v>
+      <c r="B8" s="58" t="s">
+        <v>164</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -2965,20 +2211,20 @@
       <c r="U8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="154" t="s">
-        <v>257</v>
-      </c>
-      <c r="W8" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="X8" s="156" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y8" s="157" t="s">
-        <v>259</v>
-      </c>
-      <c r="Z8" s="158" t="s">
-        <v>259</v>
+      <c r="V8" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="W8" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="X8" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y8" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z8" s="61" t="s">
+        <v>183</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>95</v>
@@ -3001,12 +2247,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="160" t="s">
-        <v>240</v>
+      <c r="B9" s="63" t="s">
+        <v>164</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -3057,20 +2303,20 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="159" t="s">
-        <v>260</v>
-      </c>
-      <c r="W9" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="X9" s="161" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y9" s="162" t="s">
-        <v>262</v>
-      </c>
-      <c r="Z9" s="163" t="s">
-        <v>262</v>
+      <c r="V9" s="62" t="s">
+        <v>184</v>
+      </c>
+      <c r="W9" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="X9" s="64" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y9" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z9" s="66" t="s">
+        <v>186</v>
       </c>
       <c r="AA9" s="14" t="s">
         <v>144</v>
@@ -3087,12 +2333,12 @@
       </c>
       <c r="AH9" s="5"/>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="165" t="s">
-        <v>240</v>
+      <c r="B10" s="68" t="s">
+        <v>164</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -3141,20 +2387,20 @@
       <c r="U10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="164" t="s">
-        <v>263</v>
-      </c>
-      <c r="W10" s="169" t="s">
-        <v>266</v>
-      </c>
-      <c r="X10" s="166" t="s">
-        <v>264</v>
-      </c>
-      <c r="Y10" s="167" t="s">
-        <v>265</v>
-      </c>
-      <c r="Z10" s="168" t="s">
-        <v>265</v>
+      <c r="V10" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="W10" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="X10" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y10" s="70" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z10" s="71" t="s">
+        <v>189</v>
       </c>
       <c r="AA10" s="14" t="s">
         <v>144</v>
@@ -3169,12 +2415,12 @@
       </c>
       <c r="AH10" s="5"/>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="171" t="s">
-        <v>240</v>
+      <c r="B11" s="74" t="s">
+        <v>164</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -3225,20 +2471,20 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="170" t="s">
-        <v>267</v>
-      </c>
-      <c r="W11" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="X11" s="172" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y11" s="173" t="s">
-        <v>269</v>
-      </c>
-      <c r="Z11" s="174" t="s">
-        <v>269</v>
+      <c r="V11" s="73" t="s">
+        <v>191</v>
+      </c>
+      <c r="W11" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="X11" s="75" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y11" s="76" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z11" s="77" t="s">
+        <v>193</v>
       </c>
       <c r="AA11" s="14" t="s">
         <v>144</v>
@@ -3255,12 +2501,12 @@
       </c>
       <c r="AH11" s="5"/>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="176" t="s">
-        <v>240</v>
+      <c r="B12" s="79" t="s">
+        <v>164</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -3311,20 +2557,20 @@
       <c r="U12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="175" t="s">
-        <v>270</v>
-      </c>
-      <c r="W12" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="X12" s="177" t="s">
-        <v>271</v>
-      </c>
-      <c r="Y12" s="178" t="s">
-        <v>272</v>
-      </c>
-      <c r="Z12" s="179" t="s">
-        <v>272</v>
+      <c r="V12" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="W12" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="X12" s="80" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y12" s="81" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z12" s="82" t="s">
+        <v>196</v>
       </c>
       <c r="AA12" s="14" t="s">
         <v>108</v>
@@ -3341,12 +2587,12 @@
       </c>
       <c r="AH12" s="5"/>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="181" t="s">
-        <v>240</v>
+      <c r="B13" s="84" t="s">
+        <v>164</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -3395,20 +2641,20 @@
       <c r="U13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="180" t="s">
-        <v>273</v>
-      </c>
-      <c r="W13" s="185" t="s">
-        <v>276</v>
-      </c>
-      <c r="X13" s="182" t="s">
-        <v>274</v>
-      </c>
-      <c r="Y13" s="183" t="s">
-        <v>275</v>
-      </c>
-      <c r="Z13" s="184" t="s">
-        <v>275</v>
+      <c r="V13" s="83" t="s">
+        <v>197</v>
+      </c>
+      <c r="W13" s="88" t="s">
+        <v>200</v>
+      </c>
+      <c r="X13" s="85" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y13" s="86" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z13" s="87" t="s">
+        <v>199</v>
       </c>
       <c r="AA13" s="14" t="s">
         <v>108</v>
@@ -3423,18 +2669,18 @@
       </c>
       <c r="AH13" s="5"/>
     </row>
-    <row customFormat="1" r="14" spans="1:34">
+    <row r="14" spans="1:34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="51" t="s">
-        <v>172</v>
+      <c r="B14" s="23" t="s">
+        <v>156</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
@@ -3478,26 +2724,26 @@
       <c r="T14" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="U14" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="V14" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="W14" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="X14" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y14" s="51" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z14" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA14" s="52" t="s">
-        <v>177</v>
+      <c r="U14" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="V14" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="W14" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="X14" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y14" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z14" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA14" s="24" t="s">
+        <v>161</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>98</v>
@@ -3521,7 +2767,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/testdata/FCfiles/stg/QuickQuote/QuickQuoteTestData.xlsx
+++ b/testdata/FCfiles/stg/QuickQuote/QuickQuoteTestData.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\qualitesoft\testdata\FCfiles\stg\QuickQuote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848EC388-504B-408D-9805-7EFF36FB86D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{848EC388-504B-408D-9805-7EFF36FB86D9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="589" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="2" tabRatio="589" windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="CreateAccount" sheetId="7" r:id="rId1"/>
-    <sheet name="ShipmentInformation" sheetId="6" r:id="rId2"/>
-    <sheet name="Input" sheetId="1" r:id="rId3"/>
+    <sheet name="CreateAccount" r:id="rId1" sheetId="7"/>
+    <sheet name="ShipmentInformation" r:id="rId2" sheetId="6"/>
+    <sheet name="Input" r:id="rId3" sheetId="1"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="205">
   <si>
     <t>shipmentType</t>
   </si>
@@ -630,12 +630,25 @@
   </si>
   <si>
     <t>59068480</t>
+  </si>
+  <si>
+    <t>59072484</t>
+  </si>
+  <si>
+    <t>06-12-2022</t>
+  </si>
+  <si>
+    <t>$715.05</t>
+  </si>
+  <si>
+    <t>CEV1072838</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -658,7 +671,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -730,8 +743,58 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -864,111 +927,151 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+  <cellXfs count="94">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="3" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="4" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="5" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="6" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="7" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="8" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="9" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="10" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="11" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="13" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="21" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -985,10 +1088,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1152,21 +1255,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1183,7 +1286,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1235,15 +1338,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -1310,12 +1413,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1324,13 +1427,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="21.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="19.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="21.109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="19.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -1455,15 +1558,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink r:id="rId1" ref="I2" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AH14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
       <selection activeCell="AA2" sqref="AA2"/>
@@ -1471,34 +1574,34 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.5546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="33.44140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16" width="9.109375" style="1" collapsed="1"/>
-    <col min="17" max="17" width="11.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="40" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="21" width="9.109375" style="1" collapsed="1"/>
-    <col min="22" max="22" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="13.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="24.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="16" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="12.5546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="20.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="19.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="32" width="19.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="23.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="16384" width="9.109375" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="18.6640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="11.43359375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="31.109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="18.5546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="9.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="20.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.33203125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="21.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="12.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="12.33203125" collapsed="true"/>
+    <col min="12" max="13" customWidth="true" style="1" width="33.44140625" collapsed="true"/>
+    <col min="14" max="16" style="1" width="9.109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="11.88671875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="40.0" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="14.109375" collapsed="true"/>
+    <col min="20" max="21" style="1" width="9.109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="9.95703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="13.109375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="9.9453125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="24.36328125" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="15.97265625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="12.5546875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="20.109375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="19.33203125" collapsed="true"/>
+    <col min="30" max="32" customWidth="true" style="1" width="19.33203125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="23.109375" collapsed="true"/>
+    <col min="34" max="16384" style="1" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.3">
@@ -1605,12 +1708,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="15.75" r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>164</v>
+      <c r="B2" s="90" t="s">
+        <v>202</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -1661,20 +1764,20 @@
       <c r="U2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="25" t="s">
-        <v>163</v>
+      <c r="V2" s="89" t="s">
+        <v>201</v>
       </c>
       <c r="W2" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="X2" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y2" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z2" s="29" t="s">
-        <v>165</v>
+      <c r="X2" s="91" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y2" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z2" s="93" t="s">
+        <v>204</v>
       </c>
       <c r="AA2" s="8" t="s">
         <v>95</v>
@@ -2669,7 +2772,7 @@
       </c>
       <c r="AH13" s="5"/>
     </row>
-    <row r="14" spans="1:34" customFormat="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>81</v>
       </c>
@@ -2767,7 +2870,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/testdata/FCfiles/stg/QuickQuote/QuickQuoteTestData.xlsx
+++ b/testdata/FCfiles/stg/QuickQuote/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="245">
   <si>
     <t>shipmentType</t>
   </si>
@@ -642,6 +642,126 @@
   </si>
   <si>
     <t>CEV1072838</t>
+  </si>
+  <si>
+    <t>59086448</t>
+  </si>
+  <si>
+    <t>08-28-2022</t>
+  </si>
+  <si>
+    <t>$603.45</t>
+  </si>
+  <si>
+    <t>CEV1073065</t>
+  </si>
+  <si>
+    <t>59086450</t>
+  </si>
+  <si>
+    <t>59086451</t>
+  </si>
+  <si>
+    <t>$1,961.19</t>
+  </si>
+  <si>
+    <t>FCABF1011996</t>
+  </si>
+  <si>
+    <t>59086454</t>
+  </si>
+  <si>
+    <t>$1,037.34</t>
+  </si>
+  <si>
+    <t>CEV1073067</t>
+  </si>
+  <si>
+    <t>59086456</t>
+  </si>
+  <si>
+    <t>$2,745.90</t>
+  </si>
+  <si>
+    <t>CEV1073068</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Pending Tracking...</t>
+  </si>
+  <si>
+    <t>59086460</t>
+  </si>
+  <si>
+    <t>CEV1073070</t>
+  </si>
+  <si>
+    <t>59086462</t>
+  </si>
+  <si>
+    <t>CEV1073071</t>
+  </si>
+  <si>
+    <t>59086464</t>
+  </si>
+  <si>
+    <t>$62.65</t>
+  </si>
+  <si>
+    <t>FCUPSG1508016</t>
+  </si>
+  <si>
+    <t>59086466</t>
+  </si>
+  <si>
+    <t>59086467</t>
+  </si>
+  <si>
+    <t>$84.84</t>
+  </si>
+  <si>
+    <t>FCUPSG1508018</t>
+  </si>
+  <si>
+    <t>59086470</t>
+  </si>
+  <si>
+    <t>59086471</t>
+  </si>
+  <si>
+    <t>$154.55</t>
+  </si>
+  <si>
+    <t>FCUPSG1508020</t>
+  </si>
+  <si>
+    <t>59086473</t>
+  </si>
+  <si>
+    <t>59086474</t>
+  </si>
+  <si>
+    <t>$40.61</t>
+  </si>
+  <si>
+    <t>FCUPSG1508022</t>
+  </si>
+  <si>
+    <t>59086476</t>
+  </si>
+  <si>
+    <t>59086477</t>
+  </si>
+  <si>
+    <t>$48.55</t>
+  </si>
+  <si>
+    <t>FCUPSG1508024</t>
+  </si>
+  <si>
+    <t>59086479</t>
   </si>
 </sst>
 </file>
@@ -671,7 +791,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="157">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -793,8 +913,668 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="154">
     <border>
       <left/>
       <right/>
@@ -962,6 +1742,468 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -970,7 +2212,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="160">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -1064,7 +2306,73 @@
     <xf applyBorder="true" applyFill="true" borderId="15" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="17" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="19" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="21" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="35" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="40" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="42" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="41" fillId="44" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="43" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="45" fillId="48" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="47" fillId="50" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="49" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="51" fillId="54" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="53" fillId="56" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="55" fillId="58" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="57" fillId="60" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="59" fillId="62" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="61" fillId="64" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="63" fillId="66" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="65" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="67" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="69" fillId="72" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="71" fillId="74" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="73" fillId="76" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="75" fillId="78" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="77" fillId="80" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="79" fillId="82" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="81" fillId="84" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="83" fillId="86" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="85" fillId="88" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="87" fillId="90" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="89" fillId="92" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="91" fillId="94" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="93" fillId="96" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="95" fillId="98" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="97" fillId="100" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="99" fillId="102" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="101" fillId="104" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="103" fillId="106" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="105" fillId="108" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="107" fillId="110" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="109" fillId="112" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="111" fillId="114" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="113" fillId="116" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="115" fillId="118" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="117" fillId="120" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="119" fillId="122" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="121" fillId="124" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="123" fillId="126" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="125" fillId="128" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="127" fillId="130" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="129" fillId="132" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="131" fillId="134" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="133" fillId="136" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="135" fillId="138" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="137" fillId="140" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="139" fillId="142" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="141" fillId="144" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="143" fillId="146" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="145" fillId="148" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="147" fillId="150" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="149" fillId="152" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="151" fillId="154" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="156" borderId="153" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1592,7 +2900,7 @@
     <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="14.109375" collapsed="true"/>
     <col min="20" max="21" style="1" width="9.109375" collapsed="true"/>
     <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="9.95703125" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="13.109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="13.07421875" collapsed="true"/>
     <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="9.9453125" collapsed="true"/>
     <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="24.36328125" collapsed="true"/>
     <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="15.97265625" collapsed="true"/>
@@ -1712,8 +3020,8 @@
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="90" t="s">
-        <v>202</v>
+      <c r="B2" s="95" t="s">
+        <v>206</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -1764,20 +3072,20 @@
       <c r="U2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="89" t="s">
-        <v>201</v>
-      </c>
-      <c r="W2" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="X2" s="91" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y2" s="92" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z2" s="93" t="s">
-        <v>204</v>
+      <c r="V2" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="W2" s="99" t="s">
+        <v>209</v>
+      </c>
+      <c r="X2" s="96" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y2" s="97" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z2" s="98" t="s">
+        <v>208</v>
       </c>
       <c r="AA2" s="8" t="s">
         <v>95</v>
@@ -1800,8 +3108,8 @@
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>164</v>
+      <c r="B3" s="101" t="s">
+        <v>206</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
@@ -1854,20 +3162,20 @@
       <c r="U3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="31" t="s">
-        <v>167</v>
+      <c r="V3" s="100" t="s">
+        <v>210</v>
       </c>
       <c r="W3" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="X3" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="Y3" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z3" s="35" t="s">
-        <v>169</v>
+      <c r="X3" s="102" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y3" s="103" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z3" s="104" t="s">
+        <v>212</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>95</v>
@@ -1896,8 +3204,8 @@
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="37" t="s">
-        <v>164</v>
+      <c r="B4" s="106" t="s">
+        <v>206</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -1948,20 +3256,20 @@
       <c r="U4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="36" t="s">
-        <v>170</v>
+      <c r="V4" s="105" t="s">
+        <v>213</v>
       </c>
       <c r="W4" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="X4" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y4" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z4" s="40" t="s">
-        <v>172</v>
+      <c r="X4" s="107" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y4" s="108" t="s">
+        <v>215</v>
+      </c>
+      <c r="Z4" s="109" t="s">
+        <v>215</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>95</v>
@@ -1988,8 +3296,8 @@
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="42" t="s">
-        <v>164</v>
+      <c r="B5" s="111" t="s">
+        <v>206</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -2040,20 +3348,20 @@
       <c r="U5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="41" t="s">
-        <v>173</v>
+      <c r="V5" s="110" t="s">
+        <v>216</v>
       </c>
       <c r="W5" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="X5" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y5" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z5" s="45" t="s">
-        <v>175</v>
+      <c r="X5" s="112" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y5" s="113" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z5" s="114" t="s">
+        <v>218</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>95</v>
@@ -2084,8 +3392,8 @@
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="47" t="s">
-        <v>164</v>
+      <c r="B6" s="116" t="s">
+        <v>219</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -2136,20 +3444,20 @@
       <c r="U6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="46" t="s">
-        <v>176</v>
+      <c r="V6" s="115" t="s">
+        <v>219</v>
       </c>
       <c r="W6" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="X6" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y6" s="49" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z6" s="50" t="s">
-        <v>177</v>
+      <c r="X6" s="117" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y6" s="118" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z6" s="119" t="s">
+        <v>219</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>95</v>
@@ -2176,8 +3484,8 @@
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="52" t="s">
-        <v>164</v>
+      <c r="B7" s="121" t="s">
+        <v>206</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
@@ -2226,20 +3534,20 @@
       <c r="U7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="51" t="s">
-        <v>178</v>
+      <c r="V7" s="120" t="s">
+        <v>221</v>
       </c>
       <c r="W7" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="X7" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="Y7" s="54" t="s">
-        <v>179</v>
-      </c>
-      <c r="Z7" s="55" t="s">
-        <v>179</v>
+      <c r="X7" s="122" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y7" s="123" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z7" s="124" t="s">
+        <v>222</v>
       </c>
       <c r="AA7" s="8" t="s">
         <v>95</v>
@@ -2262,8 +3570,8 @@
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="58" t="s">
-        <v>164</v>
+      <c r="B8" s="126" t="s">
+        <v>206</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -2314,20 +3622,20 @@
       <c r="U8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="57" t="s">
-        <v>181</v>
+      <c r="V8" s="125" t="s">
+        <v>223</v>
       </c>
       <c r="W8" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="X8" s="59" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y8" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z8" s="61" t="s">
-        <v>183</v>
+      <c r="X8" s="127" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y8" s="128" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z8" s="129" t="s">
+        <v>224</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>95</v>
@@ -2354,8 +3662,8 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="63" t="s">
-        <v>164</v>
+      <c r="B9" s="131" t="s">
+        <v>206</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -2406,20 +3714,20 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="W9" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="X9" s="64" t="s">
-        <v>185</v>
-      </c>
-      <c r="Y9" s="65" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z9" s="66" t="s">
-        <v>186</v>
+      <c r="V9" s="130" t="s">
+        <v>225</v>
+      </c>
+      <c r="W9" s="135" t="s">
+        <v>228</v>
+      </c>
+      <c r="X9" s="132" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y9" s="133" t="s">
+        <v>227</v>
+      </c>
+      <c r="Z9" s="134" t="s">
+        <v>227</v>
       </c>
       <c r="AA9" s="14" t="s">
         <v>144</v>
@@ -2440,8 +3748,8 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="68" t="s">
-        <v>164</v>
+      <c r="B10" s="137" t="s">
+        <v>206</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -2490,20 +3798,20 @@
       <c r="U10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="67" t="s">
-        <v>187</v>
-      </c>
-      <c r="W10" s="72" t="s">
-        <v>190</v>
-      </c>
-      <c r="X10" s="69" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y10" s="70" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z10" s="71" t="s">
-        <v>189</v>
+      <c r="V10" s="136" t="s">
+        <v>229</v>
+      </c>
+      <c r="W10" s="141" t="s">
+        <v>232</v>
+      </c>
+      <c r="X10" s="138" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y10" s="139" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z10" s="140" t="s">
+        <v>231</v>
       </c>
       <c r="AA10" s="14" t="s">
         <v>144</v>
@@ -2522,8 +3830,8 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="74" t="s">
-        <v>164</v>
+      <c r="B11" s="143" t="s">
+        <v>206</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -2574,20 +3882,20 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="73" t="s">
-        <v>191</v>
-      </c>
-      <c r="W11" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="X11" s="75" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y11" s="76" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z11" s="77" t="s">
-        <v>193</v>
+      <c r="V11" s="142" t="s">
+        <v>233</v>
+      </c>
+      <c r="W11" s="147" t="s">
+        <v>236</v>
+      </c>
+      <c r="X11" s="144" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y11" s="145" t="s">
+        <v>235</v>
+      </c>
+      <c r="Z11" s="146" t="s">
+        <v>235</v>
       </c>
       <c r="AA11" s="14" t="s">
         <v>144</v>
@@ -2608,8 +3916,8 @@
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="79" t="s">
-        <v>164</v>
+      <c r="B12" s="149" t="s">
+        <v>206</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -2660,20 +3968,20 @@
       <c r="U12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="W12" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="X12" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y12" s="81" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z12" s="82" t="s">
-        <v>196</v>
+      <c r="V12" s="148" t="s">
+        <v>237</v>
+      </c>
+      <c r="W12" s="153" t="s">
+        <v>240</v>
+      </c>
+      <c r="X12" s="150" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y12" s="151" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z12" s="152" t="s">
+        <v>239</v>
       </c>
       <c r="AA12" s="14" t="s">
         <v>108</v>
@@ -2694,8 +4002,8 @@
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="84" t="s">
-        <v>164</v>
+      <c r="B13" s="155" t="s">
+        <v>206</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -2744,20 +4052,20 @@
       <c r="U13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="83" t="s">
-        <v>197</v>
-      </c>
-      <c r="W13" s="88" t="s">
-        <v>200</v>
-      </c>
-      <c r="X13" s="85" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y13" s="86" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z13" s="87" t="s">
-        <v>199</v>
+      <c r="V13" s="154" t="s">
+        <v>241</v>
+      </c>
+      <c r="W13" s="159" t="s">
+        <v>244</v>
+      </c>
+      <c r="X13" s="156" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y13" s="157" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z13" s="158" t="s">
+        <v>243</v>
       </c>
       <c r="AA13" s="14" t="s">
         <v>108</v>

--- a/testdata/FCfiles/stg/QuickQuote/QuickQuoteTestData.xlsx
+++ b/testdata/FCfiles/stg/QuickQuote/QuickQuoteTestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="304">
   <si>
     <t>shipmentType</t>
   </si>
@@ -762,6 +762,183 @@
   </si>
   <si>
     <t>59086479</t>
+  </si>
+  <si>
+    <t>59089626</t>
+  </si>
+  <si>
+    <t>09-19-2022</t>
+  </si>
+  <si>
+    <t>CEV1073198</t>
+  </si>
+  <si>
+    <t>59089629</t>
+  </si>
+  <si>
+    <t>$1,974.35</t>
+  </si>
+  <si>
+    <t>FCABF1012008</t>
+  </si>
+  <si>
+    <t>59089631</t>
+  </si>
+  <si>
+    <t>CEV1073199</t>
+  </si>
+  <si>
+    <t>59089634</t>
+  </si>
+  <si>
+    <t>CEV1073200</t>
+  </si>
+  <si>
+    <t>59089636</t>
+  </si>
+  <si>
+    <t>CEV1073201</t>
+  </si>
+  <si>
+    <t>59089639</t>
+  </si>
+  <si>
+    <t>CEV1073202</t>
+  </si>
+  <si>
+    <t>59089641</t>
+  </si>
+  <si>
+    <t>CEV1073203</t>
+  </si>
+  <si>
+    <t>59089644</t>
+  </si>
+  <si>
+    <t>$62.79</t>
+  </si>
+  <si>
+    <t>FCUPSG1508197</t>
+  </si>
+  <si>
+    <t>59089647</t>
+  </si>
+  <si>
+    <t>59089648</t>
+  </si>
+  <si>
+    <t>$85.00</t>
+  </si>
+  <si>
+    <t>FCUPSG1508199</t>
+  </si>
+  <si>
+    <t>59089650</t>
+  </si>
+  <si>
+    <t>59091028</t>
+  </si>
+  <si>
+    <t>10-03-2022</t>
+  </si>
+  <si>
+    <t>CEV1073257</t>
+  </si>
+  <si>
+    <t>59091032</t>
+  </si>
+  <si>
+    <t>59091036</t>
+  </si>
+  <si>
+    <t>$970.73</t>
+  </si>
+  <si>
+    <t>CEV1073259</t>
+  </si>
+  <si>
+    <t>59091052</t>
+  </si>
+  <si>
+    <t>CEV1073260</t>
+  </si>
+  <si>
+    <t>59091064</t>
+  </si>
+  <si>
+    <t>CEV1073261</t>
+  </si>
+  <si>
+    <t>59091066</t>
+  </si>
+  <si>
+    <t>CEV1073262</t>
+  </si>
+  <si>
+    <t>59091069</t>
+  </si>
+  <si>
+    <t>CEV1073263</t>
+  </si>
+  <si>
+    <t>59091071</t>
+  </si>
+  <si>
+    <t>CEV1073264</t>
+  </si>
+  <si>
+    <t>59091073</t>
+  </si>
+  <si>
+    <t>$67.04</t>
+  </si>
+  <si>
+    <t>FCUPSG1508265</t>
+  </si>
+  <si>
+    <t>59091075</t>
+  </si>
+  <si>
+    <t>59091076</t>
+  </si>
+  <si>
+    <t>$89.22</t>
+  </si>
+  <si>
+    <t>FCUPSG1508267</t>
+  </si>
+  <si>
+    <t>59091079</t>
+  </si>
+  <si>
+    <t>59091080</t>
+  </si>
+  <si>
+    <t>$198.49</t>
+  </si>
+  <si>
+    <t>FCUPSG1508269</t>
+  </si>
+  <si>
+    <t>59091082</t>
+  </si>
+  <si>
+    <t>59091083</t>
+  </si>
+  <si>
+    <t>FCUPSG1508271</t>
+  </si>
+  <si>
+    <t>59091085</t>
+  </si>
+  <si>
+    <t>59091086</t>
+  </si>
+  <si>
+    <t>FCUPSG1508273</t>
+  </si>
+  <si>
+    <t>59091088</t>
   </si>
 </sst>
 </file>
@@ -791,7 +968,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="157">
+  <fills count="383">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1573,8 +1750,1138 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="154">
+  <borders count="380">
     <border>
       <left/>
       <right/>
@@ -2204,6 +3511,797 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2212,7 +4310,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="273">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
@@ -2372,7 +4470,120 @@
     <xf applyBorder="true" applyFill="true" borderId="147" fillId="150" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="149" fillId="152" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="151" fillId="154" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="156" borderId="153" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="153" fillId="156" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="155" fillId="158" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="157" fillId="160" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="159" fillId="162" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="161" fillId="164" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="163" fillId="166" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="165" fillId="168" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="167" fillId="170" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="169" fillId="172" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="171" fillId="174" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="173" fillId="176" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="175" fillId="178" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="177" fillId="180" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="179" fillId="182" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="181" fillId="184" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="183" fillId="186" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="185" fillId="188" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="187" fillId="190" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="189" fillId="192" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="191" fillId="194" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="193" fillId="196" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="195" fillId="198" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="197" fillId="200" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="199" fillId="202" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="201" fillId="204" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="203" fillId="206" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="205" fillId="208" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="207" fillId="210" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="209" fillId="212" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="211" fillId="214" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="213" fillId="216" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="215" fillId="218" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="217" fillId="220" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="219" fillId="222" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="221" fillId="224" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="223" fillId="226" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="225" fillId="228" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="227" fillId="230" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="229" fillId="232" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="231" fillId="234" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="233" fillId="236" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="235" fillId="238" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="237" fillId="240" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="239" fillId="242" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="241" fillId="244" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="243" fillId="246" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="245" fillId="248" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="247" fillId="250" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="249" fillId="252" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="251" fillId="254" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="253" fillId="256" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="255" fillId="258" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="257" fillId="260" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="259" fillId="262" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="261" fillId="264" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="263" fillId="266" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="265" fillId="268" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="267" fillId="270" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="269" fillId="272" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="271" fillId="274" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="273" fillId="276" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="275" fillId="278" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="277" fillId="280" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="279" fillId="282" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="281" fillId="284" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="283" fillId="286" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="285" fillId="288" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="287" fillId="290" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="289" fillId="292" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="291" fillId="294" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="293" fillId="296" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="295" fillId="298" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="297" fillId="300" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="299" fillId="302" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="301" fillId="304" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="303" fillId="306" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="305" fillId="308" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="307" fillId="310" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="309" fillId="312" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="311" fillId="314" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="313" fillId="316" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="315" fillId="318" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="317" fillId="320" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="319" fillId="322" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="321" fillId="324" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="323" fillId="326" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="325" fillId="328" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="327" fillId="330" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="329" fillId="332" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="331" fillId="334" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="333" fillId="336" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="335" fillId="338" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="337" fillId="340" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="339" fillId="342" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="341" fillId="344" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="343" fillId="346" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="345" fillId="348" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="347" fillId="350" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="349" fillId="352" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="351" fillId="354" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="353" fillId="356" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="355" fillId="358" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="357" fillId="360" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="359" fillId="362" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="361" fillId="364" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="363" fillId="366" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="365" fillId="368" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="367" fillId="370" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="369" fillId="372" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="371" fillId="374" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="373" fillId="376" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="375" fillId="378" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="377" fillId="380" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="382" borderId="379" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -3020,8 +5231,8 @@
       <c r="A2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="95" t="s">
-        <v>206</v>
+      <c r="B2" s="208" t="s">
+        <v>270</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>18</v>
@@ -3072,20 +5283,20 @@
       <c r="U2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V2" s="94" t="s">
-        <v>205</v>
-      </c>
-      <c r="W2" s="99" t="s">
-        <v>209</v>
-      </c>
-      <c r="X2" s="96" t="s">
+      <c r="V2" s="207" t="s">
+        <v>269</v>
+      </c>
+      <c r="W2" s="212" t="s">
+        <v>272</v>
+      </c>
+      <c r="X2" s="209" t="s">
         <v>207</v>
       </c>
-      <c r="Y2" s="97" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z2" s="98" t="s">
-        <v>208</v>
+      <c r="Y2" s="210" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z2" s="211" t="s">
+        <v>271</v>
       </c>
       <c r="AA2" s="8" t="s">
         <v>95</v>
@@ -3108,8 +5319,8 @@
       <c r="A3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="101" t="s">
-        <v>206</v>
+      <c r="B3" s="214" t="s">
+        <v>270</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>18</v>
@@ -3162,20 +5373,20 @@
       <c r="U3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="100" t="s">
-        <v>210</v>
+      <c r="V3" s="213" t="s">
+        <v>273</v>
       </c>
       <c r="W3" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="X3" s="102" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y3" s="103" t="s">
-        <v>212</v>
-      </c>
-      <c r="Z3" s="104" t="s">
-        <v>212</v>
+      <c r="X3" s="215" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y3" s="216" t="s">
+        <v>275</v>
+      </c>
+      <c r="Z3" s="217" t="s">
+        <v>275</v>
       </c>
       <c r="AA3" s="8" t="s">
         <v>95</v>
@@ -3204,8 +5415,8 @@
       <c r="A4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="106" t="s">
-        <v>206</v>
+      <c r="B4" s="219" t="s">
+        <v>270</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>18</v>
@@ -3256,20 +5467,20 @@
       <c r="U4" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V4" s="105" t="s">
-        <v>213</v>
+      <c r="V4" s="218" t="s">
+        <v>276</v>
       </c>
       <c r="W4" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="X4" s="107" t="s">
+      <c r="X4" s="220" t="s">
         <v>214</v>
       </c>
-      <c r="Y4" s="108" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z4" s="109" t="s">
-        <v>215</v>
+      <c r="Y4" s="221" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z4" s="222" t="s">
+        <v>277</v>
       </c>
       <c r="AA4" s="8" t="s">
         <v>95</v>
@@ -3296,8 +5507,8 @@
       <c r="A5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="111" t="s">
-        <v>206</v>
+      <c r="B5" s="224" t="s">
+        <v>270</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>18</v>
@@ -3348,20 +5559,20 @@
       <c r="U5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="V5" s="110" t="s">
-        <v>216</v>
+      <c r="V5" s="223" t="s">
+        <v>278</v>
       </c>
       <c r="W5" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="X5" s="112" t="s">
+      <c r="X5" s="225" t="s">
         <v>217</v>
       </c>
-      <c r="Y5" s="113" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z5" s="114" t="s">
-        <v>218</v>
+      <c r="Y5" s="226" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z5" s="227" t="s">
+        <v>279</v>
       </c>
       <c r="AA5" s="8" t="s">
         <v>95</v>
@@ -3392,8 +5603,8 @@
       <c r="A6" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="116" t="s">
-        <v>219</v>
+      <c r="B6" s="229" t="s">
+        <v>270</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
@@ -3444,20 +5655,20 @@
       <c r="U6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V6" s="115" t="s">
-        <v>219</v>
+      <c r="V6" s="228" t="s">
+        <v>280</v>
       </c>
       <c r="W6" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="X6" s="117" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y6" s="118" t="s">
-        <v>220</v>
-      </c>
-      <c r="Z6" s="119" t="s">
-        <v>219</v>
+      <c r="X6" s="230" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y6" s="231" t="s">
+        <v>281</v>
+      </c>
+      <c r="Z6" s="232" t="s">
+        <v>281</v>
       </c>
       <c r="AA6" s="8" t="s">
         <v>95</v>
@@ -3484,8 +5695,8 @@
       <c r="A7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="121" t="s">
-        <v>206</v>
+      <c r="B7" s="234" t="s">
+        <v>270</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>18</v>
@@ -3534,20 +5745,20 @@
       <c r="U7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="120" t="s">
-        <v>221</v>
+      <c r="V7" s="233" t="s">
+        <v>282</v>
       </c>
       <c r="W7" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="X7" s="122" t="s">
+      <c r="X7" s="235" t="s">
         <v>214</v>
       </c>
-      <c r="Y7" s="123" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z7" s="124" t="s">
-        <v>222</v>
+      <c r="Y7" s="236" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z7" s="237" t="s">
+        <v>283</v>
       </c>
       <c r="AA7" s="8" t="s">
         <v>95</v>
@@ -3570,8 +5781,8 @@
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="126" t="s">
-        <v>206</v>
+      <c r="B8" s="239" t="s">
+        <v>270</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>18</v>
@@ -3622,20 +5833,20 @@
       <c r="U8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V8" s="125" t="s">
-        <v>223</v>
+      <c r="V8" s="238" t="s">
+        <v>284</v>
       </c>
       <c r="W8" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="X8" s="127" t="s">
+      <c r="X8" s="240" t="s">
         <v>207</v>
       </c>
-      <c r="Y8" s="128" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z8" s="129" t="s">
-        <v>224</v>
+      <c r="Y8" s="241" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z8" s="242" t="s">
+        <v>285</v>
       </c>
       <c r="AA8" s="8" t="s">
         <v>95</v>
@@ -3662,8 +5873,8 @@
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="131" t="s">
-        <v>206</v>
+      <c r="B9" s="244" t="s">
+        <v>270</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -3714,20 +5925,20 @@
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V9" s="130" t="s">
-        <v>225</v>
-      </c>
-      <c r="W9" s="135" t="s">
-        <v>228</v>
-      </c>
-      <c r="X9" s="132" t="s">
-        <v>226</v>
-      </c>
-      <c r="Y9" s="133" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z9" s="134" t="s">
-        <v>227</v>
+      <c r="V9" s="243" t="s">
+        <v>286</v>
+      </c>
+      <c r="W9" s="248" t="s">
+        <v>289</v>
+      </c>
+      <c r="X9" s="245" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y9" s="246" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z9" s="247" t="s">
+        <v>288</v>
       </c>
       <c r="AA9" s="14" t="s">
         <v>144</v>
@@ -3748,8 +5959,8 @@
       <c r="A10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="137" t="s">
-        <v>206</v>
+      <c r="B10" s="250" t="s">
+        <v>270</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
@@ -3798,20 +6009,20 @@
       <c r="U10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V10" s="136" t="s">
-        <v>229</v>
-      </c>
-      <c r="W10" s="141" t="s">
-        <v>232</v>
-      </c>
-      <c r="X10" s="138" t="s">
-        <v>230</v>
-      </c>
-      <c r="Y10" s="139" t="s">
-        <v>231</v>
-      </c>
-      <c r="Z10" s="140" t="s">
-        <v>231</v>
+      <c r="V10" s="249" t="s">
+        <v>290</v>
+      </c>
+      <c r="W10" s="254" t="s">
+        <v>293</v>
+      </c>
+      <c r="X10" s="251" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y10" s="252" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z10" s="253" t="s">
+        <v>292</v>
       </c>
       <c r="AA10" s="14" t="s">
         <v>144</v>
@@ -3830,8 +6041,8 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="143" t="s">
-        <v>206</v>
+      <c r="B11" s="256" t="s">
+        <v>270</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
@@ -3882,20 +6093,20 @@
       <c r="U11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V11" s="142" t="s">
-        <v>233</v>
-      </c>
-      <c r="W11" s="147" t="s">
-        <v>236</v>
-      </c>
-      <c r="X11" s="144" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y11" s="145" t="s">
-        <v>235</v>
-      </c>
-      <c r="Z11" s="146" t="s">
-        <v>235</v>
+      <c r="V11" s="255" t="s">
+        <v>294</v>
+      </c>
+      <c r="W11" s="260" t="s">
+        <v>297</v>
+      </c>
+      <c r="X11" s="257" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y11" s="258" t="s">
+        <v>296</v>
+      </c>
+      <c r="Z11" s="259" t="s">
+        <v>296</v>
       </c>
       <c r="AA11" s="14" t="s">
         <v>144</v>
@@ -3916,8 +6127,8 @@
       <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="149" t="s">
-        <v>206</v>
+      <c r="B12" s="262" t="s">
+        <v>270</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -3968,20 +6179,20 @@
       <c r="U12" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V12" s="148" t="s">
-        <v>237</v>
-      </c>
-      <c r="W12" s="153" t="s">
-        <v>240</v>
-      </c>
-      <c r="X12" s="150" t="s">
+      <c r="V12" s="261" t="s">
+        <v>298</v>
+      </c>
+      <c r="W12" s="266" t="s">
+        <v>300</v>
+      </c>
+      <c r="X12" s="263" t="s">
         <v>238</v>
       </c>
-      <c r="Y12" s="151" t="s">
-        <v>239</v>
-      </c>
-      <c r="Z12" s="152" t="s">
-        <v>239</v>
+      <c r="Y12" s="264" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z12" s="265" t="s">
+        <v>299</v>
       </c>
       <c r="AA12" s="14" t="s">
         <v>108</v>
@@ -4002,8 +6213,8 @@
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="155" t="s">
-        <v>206</v>
+      <c r="B13" s="268" t="s">
+        <v>270</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
@@ -4052,20 +6263,20 @@
       <c r="U13" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="V13" s="154" t="s">
-        <v>241</v>
-      </c>
-      <c r="W13" s="159" t="s">
-        <v>244</v>
-      </c>
-      <c r="X13" s="156" t="s">
+      <c r="V13" s="267" t="s">
+        <v>301</v>
+      </c>
+      <c r="W13" s="272" t="s">
+        <v>303</v>
+      </c>
+      <c r="X13" s="269" t="s">
         <v>242</v>
       </c>
-      <c r="Y13" s="157" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z13" s="158" t="s">
-        <v>243</v>
+      <c r="Y13" s="270" t="s">
+        <v>302</v>
+      </c>
+      <c r="Z13" s="271" t="s">
+        <v>302</v>
       </c>
       <c r="AA13" s="14" t="s">
         <v>108</v>
